--- a/Doc/iteration3/CS673_ProgressReport_team2.xlsx
+++ b/Doc/iteration3/CS673_ProgressReport_team2.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="251">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -186,6 +186,13 @@
   </si>
   <si>
     <t>The backend issue fixed</t>
+  </si>
+  <si>
+    <t>06/14-06/20</t>
+  </si>
+  <si>
+    <t>1.Completion of Deployment
+2.Completion of Project Completion</t>
   </si>
   <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
@@ -379,6 +386,35 @@
   <si>
     <t>Attended all meetings, regular 
 communication</t>
+  </si>
+  <si>
+    <t>Bharat Gogineni</t>
+  </si>
+  <si>
+    <t>i.  Overview 
+ii  Non Functional Requirements 
+iii. Timeline</t>
+  </si>
+  <si>
+    <t>Created 2 user stories:
+Add a timeline for each task
+Notification Service</t>
+  </si>
+  <si>
+    <t>Code Refactoring
+Backend
+Business Logic</t>
+  </si>
+  <si>
+    <t>Iteration 3 Demo
+Final Presentation Project Management
+Final Presentation Design</t>
+  </si>
+  <si>
+    <t>Code Refactoring</t>
+  </si>
+  <si>
+    <t>Setup Backend</t>
   </si>
   <si>
     <t>The sheet shows an example of  a student weekly report.  Only include the time that you use to work on the project. 
@@ -724,6 +760,22 @@
 5-  Setup CICD pipeline for deployment</t>
   </si>
   <si>
+    <t>0 - Deployment to Vercel and updating Authorization to accept calls from Deployed Origin 
+2 - Requirement analysis for final tasks remaining for project
+3 - Finishing touches and extra features for project frontend and backend
+5 - Communicated with team and set up tasks
+6 - Setup plan for final tasks and communicated ideal timeline of tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No major issues for Final Week </t>
+  </si>
+  <si>
+    <t>In a good state for final deployment</t>
+  </si>
+  <si>
+    <t>Final Week</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -799,6 +851,34 @@
 3 - Setup and integrate all API Routes and integrate with Frontend Logic , Add Test cases annd deploy 
 4 - Validate unit tests are setup correctly and give correct results
 5- Focus on deployment and making sure users can access application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - Learning about JWT RSA Validation and Modified nodejs Structure to suit auth0
+2 - Implemented and made changes to backend application
+3 - Cleanup nodejs application and create mock tests for db
+5 - </t>
+  </si>
+  <si>
+    <t>3 - Nodejs Implementation for auth0 not very well documented ran into issues</t>
+  </si>
+  <si>
+    <t>0 - auth0 jwt implementation nodejs backend
+2 - Requirement analysis for remaining tasks and dividing work between team members
+3 - Continued with frontend and backend development , setup logs for backend and added features to frontend and backend
+5 - Communicated with team and set up tasks</t>
+  </si>
+  <si>
+    <t>5 - Ran into timing issues with Graduation</t>
+  </si>
+  <si>
+    <t>2 - Requirement analysis for final tasks remaining for project
+3 - Finishing touches and extra features for project frontend
+5 - Communicated with team and set up tasks
+6 - Setup plan for final tasks and communicated ideal timeline of tasks</t>
+  </si>
+  <si>
+    <t>Contributed by restructuring front end and cleanup and refactoring,Helped compile Presentation video
+Setup communication between all team members and followed up with members about missing work</t>
   </si>
   <si>
     <r>
@@ -1104,7 +1184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1137,6 +1217,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
@@ -1206,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1233,25 +1318,28 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1263,13 +1351,13 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1278,17 +1366,17 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1297,7 +1385,10 @@
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1792,9 +1883,9 @@
         <f>(BenoitClemenceau!J5+ChinmayBhelke!J5+BharatGogineni!J5+TainaConde!J5+RuiqiChang!J5)</f>
         <v>6</v>
       </c>
-      <c r="S5" s="9" t="str">
-        <f>(#REF!+ChinmayBhelke!K5+BharatGogineni!K5+TainaConde!K5+RuiqiChang!K5)</f>
-        <v>#REF!</v>
+      <c r="S5" s="9">
+        <f>(BenoitClemenceau!M5+ChinmayBhelke!K5+BharatGogineni!K5+TainaConde!K5+RuiqiChang!K5)</f>
+        <v>4</v>
       </c>
       <c r="T5" s="9">
         <f>(BenoitClemenceau!L5+ChinmayBhelke!L5+BharatGogineni!L5+TainaConde!L5+RuiqiChang!L5)</f>
@@ -1909,7 +2000,7 @@
         <v>0.0</v>
       </c>
       <c r="L7" s="9">
-        <f>M7+N7</f>
+        <f t="shared" ref="L7:L8" si="1">M7+N7</f>
         <v>130.5</v>
       </c>
       <c r="M7" s="8">
@@ -1944,9 +2035,71 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="G8" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
+      <c r="M8" s="10">
+        <f>(BenoitClemenceau!D9+ChinmayBhelke!D9+BharatGogineni!D9+TainaConde!D9+RuiqiChang!D9)</f>
+        <v>65.5</v>
+      </c>
+      <c r="N8" s="8">
+        <f>(BenoitClemenceau!E9+ChinmayBhelke!E9+BharatGogineni!E9+TainaConde!E9+RuiqiChang!E9)</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="8">
+        <f>(BenoitClemenceau!G9+ChinmayBhelke!G9+BharatGogineni!G9+TainaConde!G9+RuiqiChang!G9)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P8" s="8">
+        <f>(BenoitClemenceau!H9+ChinmayBhelke!H9+BharatGogineni!H9+TainaConde!H9+RuiqiChang!H9)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>(BenoitClemenceau!K9+ChinmayBhelke!I9+BharatGogineni!I9+TainaConde!I9+RuiqiChang!I9)</f>
+        <v>9</v>
+      </c>
+      <c r="R8" s="8">
+        <f>(BenoitClemenceau!L9+ChinmayBhelke!J9+BharatGogineni!J9+TainaConde!J9+RuiqiChang!J9)</f>
+        <v>31</v>
+      </c>
+      <c r="S8" s="8">
+        <f>(BenoitClemenceau!M9+ChinmayBhelke!K9+BharatGogineni!K9+TainaConde!K9+RuiqiChang!K9)</f>
+        <v>8</v>
+      </c>
+      <c r="T8" s="8">
+        <f>(BenoitClemenceau!N9+ChinmayBhelke!L9+BharatGogineni!L9+TainaConde!L9+RuiqiChang!L9)</f>
+        <v>6.5</v>
+      </c>
+      <c r="U8" s="8">
+        <f>(BenoitClemenceau!M9+ChinmayBhelke!M9+BharatGogineni!M9+TainaConde!M9+RuiqiChang!M9)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
@@ -2977,212 +3130,237 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="J2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
+      <c r="B3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="H3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>62</v>
       </c>
+      <c r="J3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
+    </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -4213,70 +4391,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -4300,22 +4478,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -4326,66 +4504,66 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>1.0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <v>1.0</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="F4" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="28">
         <v>3.0</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="28">
         <v>1.0</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27">
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28">
         <v>0.5</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="28">
         <v>1.0</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="28">
         <v>0.5</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="27">
+      <c r="O4" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="S4" s="28">
         <v>6.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="G5" s="6"/>
@@ -9095,66 +9273,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -9178,73 +9356,73 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>1.0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C9" si="1">D4+E4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <f t="shared" ref="D4:D9" si="2">sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <v>4.0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="31">
         <v>5.0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="30">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="31">
         <v>0.5</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="31">
         <v>0.5</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="S4" s="30">
+      <c r="N4" s="28"/>
+      <c r="O4" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="31">
         <v>12.0</v>
       </c>
       <c r="T4" s="6"/>
@@ -9268,7 +9446,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7">
         <v>4.0</v>
@@ -9287,13 +9465,13 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="S5" s="7">
         <v>11.0</v>
@@ -9305,7 +9483,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="1"/>
@@ -9319,7 +9497,7 @@
         <v>3.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7">
         <v>3.0</v>
@@ -9334,12 +9512,12 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="S6" s="7">
         <v>11.0</v>
@@ -9351,7 +9529,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
@@ -9365,7 +9543,7 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7">
         <v>6.0</v>
@@ -9385,7 +9563,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S7" s="7">
         <v>17.0</v>
@@ -9397,7 +9575,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="1"/>
@@ -9411,7 +9589,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7">
         <v>3.0</v>
@@ -9428,12 +9606,12 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S8" s="7">
         <v>7.0</v>
@@ -9445,7 +9623,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="1"/>
@@ -9459,7 +9637,7 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -9472,7 +9650,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -13678,66 +13856,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -13761,73 +13939,73 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>1.0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28">
         <f>D4+E4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <v>4.0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="31">
         <v>5.0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="30">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="31">
         <v>0.5</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="31">
         <v>0.5</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" s="30">
+      <c r="N4" s="28"/>
+      <c r="O4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="31">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
@@ -13850,7 +14028,7 @@
         <v>24.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7">
         <v>5.0</v>
@@ -13876,17 +14054,17 @@
       <c r="N5" s="7">
         <v>0.0</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>138</v>
+      <c r="O5" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -13898,7 +14076,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="8">
         <v>12.0</v>
@@ -13911,7 +14089,7 @@
         <v>24.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7">
         <v>6.0</v>
@@ -13937,17 +14115,17 @@
       <c r="N6" s="7">
         <v>0.0</v>
       </c>
-      <c r="O6" s="30" t="s">
-        <v>144</v>
+      <c r="O6" s="31" t="s">
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S6" s="7">
         <v>8.0</v>
@@ -13959,7 +14137,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C7" s="8">
         <v>20.0</v>
@@ -13971,7 +14149,7 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7">
         <v>4.0</v>
@@ -13997,17 +14175,17 @@
       <c r="N7" s="7">
         <v>0.0</v>
       </c>
-      <c r="O7" s="30" t="s">
-        <v>150</v>
+      <c r="O7" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="S7" s="7">
         <v>20.0</v>
@@ -14019,7 +14197,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8">
         <v>25.0</v>
@@ -14031,7 +14209,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7">
         <v>5.0</v>
@@ -14057,17 +14235,17 @@
       <c r="N8" s="7">
         <v>0.0</v>
       </c>
-      <c r="O8" s="30" t="s">
-        <v>156</v>
+      <c r="O8" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="S8" s="7">
         <v>20.0</v>
@@ -14075,20 +14253,63 @@
       <c r="T8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="A9" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" s="7">
+        <v>15.0</v>
+      </c>
       <c r="T9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -18289,70 +18510,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -18376,22 +18597,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -18402,64 +18623,64 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>1.0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28">
         <f>D4+E4</f>
         <v>9</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <f>sum(G4:N4)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <v>4.0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="31">
         <v>1.0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="30">
+      <c r="H4" s="28"/>
+      <c r="I4" s="31">
         <v>2.0</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="30">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="31">
         <v>1.0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="31">
         <v>0.5</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="28">
         <v>0.5</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P4" s="30">
+      <c r="O4" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="31">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="S4" s="30">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="S4" s="31">
         <v>8.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8">
@@ -18479,7 +18700,7 @@
         <v>3.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7">
         <v>5.0</v>
@@ -18505,17 +18726,17 @@
       <c r="N5" s="7">
         <v>0.0</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>164</v>
+      <c r="O5" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -18529,7 +18750,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="8">
         <v>12.0</v>
@@ -18542,7 +18763,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7">
         <v>6.0</v>
@@ -18568,17 +18789,17 @@
       <c r="N6" s="7">
         <v>0.0</v>
       </c>
-      <c r="O6" s="31" t="s">
-        <v>168</v>
+      <c r="O6" s="32" t="s">
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="S6" s="7">
         <v>8.0</v>
@@ -18588,55 +18809,187 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="A7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S7" s="7">
+        <v>6.0</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="A8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="S8" s="7">
+        <v>8.0</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="A9" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" s="7">
+        <v>14.0</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -23259,70 +23612,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -23346,22 +23699,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -23372,113 +23725,113 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>1.0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C9" si="1">D4+E4</f>
         <v>9</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <f t="shared" ref="D4:D9" si="2">sum(G4:N4)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <v>4.0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="31">
         <v>2.0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="30">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="31">
         <v>2.0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="31">
         <v>1.0</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="S4" s="30">
+      <c r="N4" s="28"/>
+      <c r="O4" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" s="31">
         <v>15.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>2.0</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="28">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="28">
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="31">
         <v>2.0</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="30">
+      <c r="F5" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="31">
         <v>2.0</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="28">
         <v>3.0</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="28">
         <v>2.0</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="30">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="31">
         <v>0.5</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="31">
         <v>1.0</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="S5" s="30">
+      <c r="N5" s="28"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="S5" s="31">
         <v>20.0</v>
       </c>
       <c r="T5" s="6"/>
@@ -23486,57 +23839,57 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>3.0</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="28">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <v>2.5</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="F6" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="31">
         <v>3.0</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31">
         <v>2.5</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="30">
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="31">
         <v>1.0</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="31">
         <v>0.5</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="31">
         <v>0.5</v>
       </c>
-      <c r="O6" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="S6" s="30">
+      <c r="O6" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="S6" s="31">
         <v>15.0</v>
       </c>
       <c r="T6" s="6"/>
@@ -23548,51 +23901,51 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="27">
+        <v>208</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="28">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <v>1.5</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="F7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="31">
         <v>8.0</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="31">
         <v>0.5</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="30">
+      <c r="I7" s="31"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="31">
         <v>1.0</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31">
         <v>3.0</v>
       </c>
-      <c r="O7" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="S7" s="30">
+      <c r="O7" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="31">
         <v>5.0</v>
       </c>
       <c r="T7" s="6"/>
@@ -23604,45 +23957,45 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="27">
+        <v>214</v>
+      </c>
+      <c r="C8" s="28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="28">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="31">
         <v>1.5</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="F8" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31">
         <v>0.5</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="30">
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="31">
         <v>3.0</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="S8" s="30">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="S8" s="31">
         <v>5.0</v>
       </c>
       <c r="T8" s="6"/>
@@ -23654,49 +24007,49 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="27">
+        <v>219</v>
+      </c>
+      <c r="C9" s="28">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="31">
         <v>1.0</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="F9" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="31">
         <v>0.5</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="31">
         <v>1.0</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="30">
+      <c r="I9" s="31"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="31">
         <v>8.0</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="31">
         <v>2.0</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="31">
         <v>1.0</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -28301,70 +28654,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="A1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -28388,22 +28741,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -28414,71 +28767,71 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>1.0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C9" si="1">D4+E4</f>
         <v>14.5</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <f t="shared" ref="D4:D9" si="2">sum(G4:N4)</f>
         <v>10.5</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="31">
         <v>4.0</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="31">
         <v>5.0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="30">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="31">
         <v>2.0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="31">
         <v>3.0</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="28">
         <v>0.5</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="S4" s="30">
+      <c r="O4" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="S4" s="31">
         <v>10.0</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8">
         <v>2.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
@@ -28492,7 +28845,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7">
         <v>3.0</v>
@@ -28511,16 +28864,16 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="S5" s="7">
         <v>12.0</v>
@@ -28548,7 +28901,7 @@
         <v>1.5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G6" s="7">
         <v>3.0</v>
@@ -28571,16 +28924,16 @@
         <v>0.5</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="S6" s="7">
         <v>15.0</v>
@@ -28594,7 +28947,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
@@ -28608,7 +28961,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7">
         <v>4.0</v>
@@ -28628,13 +28981,13 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="S7" s="7">
         <v>16.0</v>
@@ -28648,7 +29001,7 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="1"/>
@@ -28662,7 +29015,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7">
         <v>6.0</v>
@@ -28683,12 +29036,12 @@
         <v>1.0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="S8" s="7">
         <v>18.0</v>
@@ -28702,7 +29055,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="1"/>
@@ -28715,8 +29068,8 @@
       <c r="E9" s="8">
         <v>1.0</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>230</v>
+      <c r="F9" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -28733,7 +29086,7 @@
         <v>0.5</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
